--- a/output/VERDE_31403590000127.xlsx
+++ b/output/VERDE_31403590000127.xlsx
@@ -691,10 +691,10 @@
         <v>44165</v>
       </c>
       <c r="B28">
-        <v>0.1737513100000001</v>
+        <v>0.17398885</v>
       </c>
       <c r="C28">
-        <v>0.03570030936940349</v>
+        <v>0.03590991105367136</v>
       </c>
     </row>
   </sheetData>

--- a/output/VERDE_31403590000127.xlsx
+++ b/output/VERDE_31403590000127.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>VERDE AM X60 ADVISORY FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,315 +383,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43373</v>
       </c>
       <c r="B2">
-        <v>-0.0009576399999999818</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43404</v>
       </c>
       <c r="B3">
-        <v>0.03021486000000007</v>
-      </c>
-      <c r="C3">
         <v>0.03120238064780367</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43434</v>
       </c>
       <c r="B4">
-        <v>0.03546816999999991</v>
-      </c>
-      <c r="C4">
         <v>0.00509923726007977</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43465</v>
       </c>
       <c r="B5">
-        <v>0.03509683000000008</v>
-      </c>
-      <c r="C5">
         <v>-0.0003586203910062036</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43496</v>
       </c>
       <c r="B6">
-        <v>0.06746809999999992</v>
-      </c>
-      <c r="C6">
         <v>0.03127366354701322</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43524</v>
       </c>
       <c r="B7">
-        <v>0.06859279000000007</v>
-      </c>
-      <c r="C7">
         <v>0.001053605255276535</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43555</v>
       </c>
       <c r="B8">
-        <v>0.07283539000000006</v>
-      </c>
-      <c r="C8">
         <v>0.003970268225373275</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43585</v>
       </c>
       <c r="B9">
-        <v>0.08109885999999999</v>
-      </c>
-      <c r="C9">
         <v>0.007702458435864923</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43616</v>
       </c>
       <c r="B10">
-        <v>0.09463521000000008</v>
-      </c>
-      <c r="C10">
         <v>0.01252091783724585</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43646</v>
       </c>
       <c r="B11">
-        <v>0.11061546</v>
-      </c>
-      <c r="C11">
         <v>0.01459869904970446</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43677</v>
       </c>
       <c r="B12">
-        <v>0.11493384</v>
-      </c>
-      <c r="C12">
         <v>0.003888276505713328</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43708</v>
       </c>
       <c r="B13">
-        <v>0.1163980499999999</v>
-      </c>
-      <c r="C13">
         <v>0.001313270749769391</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43738</v>
       </c>
       <c r="B14">
-        <v>0.13070761</v>
-      </c>
-      <c r="C14">
         <v>0.01281761464918363</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43769</v>
       </c>
       <c r="B15">
-        <v>0.14039658</v>
-      </c>
-      <c r="C15">
         <v>0.008568943831553488</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43799</v>
       </c>
       <c r="B16">
-        <v>0.1400678799999999</v>
-      </c>
-      <c r="C16">
         <v>-0.0002882330636242436</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43830</v>
       </c>
       <c r="B17">
-        <v>0.16157351</v>
-      </c>
-      <c r="C17">
         <v>0.01886346451581478</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43861</v>
       </c>
       <c r="B18">
-        <v>0.15891404</v>
-      </c>
-      <c r="C18">
         <v>-0.002289540848775085</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43890</v>
       </c>
       <c r="B19">
-        <v>0.12545691</v>
-      </c>
-      <c r="C19">
         <v>-0.02886938016559015</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43921</v>
       </c>
       <c r="B20">
-        <v>-0.003724029999999989</v>
-      </c>
-      <c r="C20">
         <v>-0.1147808848585772</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43951</v>
       </c>
       <c r="B21">
-        <v>0.08095925000000004</v>
-      </c>
-      <c r="C21">
         <v>0.08499982188670074</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43982</v>
       </c>
       <c r="B22">
-        <v>0.10754234</v>
-      </c>
-      <c r="C22">
         <v>0.02459212962930835</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>44012</v>
       </c>
       <c r="B23">
-        <v>0.11708618</v>
-      </c>
-      <c r="C23">
         <v>0.008617133318803871</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>44043</v>
       </c>
       <c r="B24">
-        <v>0.1391019099999999</v>
-      </c>
-      <c r="C24">
         <v>0.01970817506667211</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>44074</v>
       </c>
       <c r="B25">
-        <v>0.1535464</v>
-      </c>
-      <c r="C25">
         <v>0.01268059501366303</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>44104</v>
       </c>
       <c r="B26">
-        <v>0.13925806</v>
-      </c>
-      <c r="C26">
         <v>-0.01238644583347492</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>44135</v>
       </c>
       <c r="B27">
-        <v>0.1332924200000001</v>
-      </c>
-      <c r="C27">
         <v>-0.005236425538213796</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>44165</v>
       </c>
       <c r="B28">
-        <v>0.17398885</v>
-      </c>
-      <c r="C28">
-        <v>0.03590991105367136</v>
+        <v>0.02926439762122457</v>
       </c>
     </row>
   </sheetData>
